--- a/Team-Data/2013-14/3-29-2013-14.xlsx
+++ b/Team-Data/2013-14/3-29-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>0.431</v>
+        <v>0.437</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -684,7 +751,7 @@
         <v>37.3</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
         <v>0.455</v>
@@ -693,25 +760,25 @@
         <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.37</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
         <v>39.9</v>
@@ -726,7 +793,7 @@
         <v>8.4</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
@@ -738,13 +805,13 @@
         <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC2" t="n">
         <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
         <v>20</v>
@@ -780,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -813,10 +880,10 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1138,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
@@ -1150,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1338,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1493,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
@@ -1508,7 +1575,7 @@
         <v>13</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1538,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA6" t="n">
         <v>9</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
       </c>
       <c r="G8" t="n">
-        <v>0.595</v>
+        <v>0.589</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
         <v>0.473</v>
@@ -1788,19 +1855,19 @@
         <v>22.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O8" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
         <v>0.797</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
         <v>30.6</v>
@@ -1812,7 +1879,7 @@
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W8" t="n">
         <v>8.800000000000001</v>
@@ -1827,19 +1894,19 @@
         <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB8" t="n">
         <v>104.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1848,13 +1915,13 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,13 +1933,13 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
         <v>3</v>
@@ -1884,10 +1951,10 @@
         <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>5</v>
@@ -1902,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>29</v>
@@ -2060,7 +2127,7 @@
         <v>27</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>5</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" t="n">
-        <v>0.356</v>
+        <v>0.361</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
@@ -2155,13 +2222,13 @@
         <v>0.317</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.668</v>
+        <v>0.666</v>
       </c>
       <c r="R10" t="n">
         <v>14.2</v>
@@ -2170,7 +2237,7 @@
         <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
@@ -2194,13 +2261,13 @@
         <v>20.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2212,7 +2279,7 @@
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>7</v>
@@ -2221,10 +2288,10 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM10" t="n">
         <v>24</v>
@@ -2248,13 +2315,13 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2263,13 +2330,13 @@
         <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2403,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2415,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2451,7 +2518,7 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="n">
         <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.681</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J12" t="n">
         <v>79.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L12" t="n">
         <v>9.300000000000001</v>
@@ -2516,16 +2583,16 @@
         <v>26.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O12" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P12" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.703</v>
+        <v>0.701</v>
       </c>
       <c r="R12" t="n">
         <v>11.2</v>
@@ -2534,10 +2601,10 @@
         <v>33.9</v>
       </c>
       <c r="T12" t="n">
-        <v>45.1</v>
+        <v>45</v>
       </c>
       <c r="U12" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V12" t="n">
         <v>16.4</v>
@@ -2546,34 +2613,34 @@
         <v>7.5</v>
       </c>
       <c r="X12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
         <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="AB12" t="n">
         <v>107</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>16</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>5.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>3</v>
@@ -2758,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
@@ -2782,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -2850,46 +2917,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.703</v>
+        <v>0.699</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.475</v>
       </c>
       <c r="L14" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M14" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O14" t="n">
         <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
         <v>10.5</v>
@@ -2901,37 +2968,37 @@
         <v>42.8</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>3.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA14" t="n">
         <v>23.4</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.5</v>
+        <v>107.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
         <v>4</v>
@@ -2940,7 +3007,7 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
         <v>3</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2973,7 +3040,7 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2997,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
@@ -3149,7 +3216,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>1.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="n">
         <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.694</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J17" t="n">
         <v>76.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -3426,55 +3493,55 @@
         <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O17" t="n">
         <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="S17" t="n">
         <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V17" t="n">
         <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103</v>
+        <v>103.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3489,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3504,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3519,7 +3586,7 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3543,13 +3610,13 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB17" t="n">
         <v>11</v>
       </c>
       <c r="BC17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -3578,85 +3645,85 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>0.192</v>
+        <v>0.194</v>
       </c>
       <c r="H18" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="N18" t="n">
         <v>0.355</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P18" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T18" t="n">
         <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W18" t="n">
         <v>6.8</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,13 +3741,13 @@
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>21</v>
@@ -3692,19 +3759,19 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT18" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3853,7 +3920,7 @@
         <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3883,13 +3950,13 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>8</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -3942,70 +4009,70 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.438</v>
+        <v>0.444</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J20" t="n">
         <v>82.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
         <v>5.9</v>
       </c>
       <c r="M20" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O20" t="n">
         <v>18.1</v>
       </c>
       <c r="P20" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q20" t="n">
         <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
         <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>22.8</v>
@@ -4014,13 +4081,13 @@
         <v>20.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>18</v>
@@ -4041,7 +4108,7 @@
         <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4050,25 +4117,25 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
         <v>19</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4250,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4259,13 +4326,13 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,19 +4463,19 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
       </c>
       <c r="AL22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4432,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4581,10 +4648,10 @@
         <v>3</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="n">
         <v>57</v>
       </c>
       <c r="G24" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J24" t="n">
-        <v>87.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.43</v>
+        <v>0.428</v>
       </c>
       <c r="L24" t="n">
         <v>7</v>
@@ -4700,16 +4767,16 @@
         <v>22.7</v>
       </c>
       <c r="N24" t="n">
-        <v>0.31</v>
+        <v>0.307</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
         <v>23.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="R24" t="n">
         <v>12</v>
@@ -4721,7 +4788,7 @@
         <v>43.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V24" t="n">
         <v>17.2</v>
@@ -4742,13 +4809,13 @@
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11</v>
+        <v>-11.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4769,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>12</v>
@@ -4781,16 +4848,16 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4942,13 +5009,13 @@
         <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>7</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>1</v>
@@ -5148,7 +5215,7 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J27" t="n">
         <v>82.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M27" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N27" t="n">
         <v>0.337</v>
       </c>
       <c r="O27" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P27" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R27" t="n">
         <v>12.2</v>
@@ -5264,19 +5331,19 @@
         <v>32.2</v>
       </c>
       <c r="T27" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U27" t="n">
         <v>18.9</v>
       </c>
       <c r="V27" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W27" t="n">
         <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>5.6</v>
@@ -5285,16 +5352,16 @@
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AB27" t="n">
         <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5309,13 +5376,13 @@
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5336,7 +5403,7 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS27" t="n">
         <v>13</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW27" t="n">
         <v>21</v>
@@ -5363,7 +5430,7 @@
         <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.781</v>
+        <v>0.778</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="J28" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="L28" t="n">
         <v>8.5</v>
@@ -5437,7 +5504,7 @@
         <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R28" t="n">
         <v>9.1</v>
@@ -5458,10 +5525,10 @@
         <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z28" t="n">
         <v>18.2</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.6</v>
+        <v>105.7</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5530,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>19</v>
@@ -5539,7 +5606,7 @@
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5688,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5876,7 +5943,7 @@
         <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
@@ -5903,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="n">
         <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
@@ -5962,16 +6029,16 @@
         <v>38.5</v>
       </c>
       <c r="J31" t="n">
-        <v>84.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L31" t="n">
         <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N31" t="n">
         <v>0.385</v>
@@ -5995,7 +6062,7 @@
         <v>42.4</v>
       </c>
       <c r="U31" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
@@ -6007,7 +6074,7 @@
         <v>4.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
         <v>20.5</v>
@@ -6022,10 +6089,10 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
         <v>15</v>
@@ -6046,7 +6113,7 @@
         <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-29-2013-14</t>
+          <t>2014-03-29</t>
         </is>
       </c>
     </row>
